--- a/P3-2023-MAR Planilla de control de Obligatorio 1.xlsx
+++ b/P3-2023-MAR Planilla de control de Obligatorio 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5dcd86d9bf03d87f/ORT/Semestre3/P3/Obligatorio_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1FFE9-EC72-40F5-AF4F-942549F89AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{60E1FFE9-EC72-40F5-AF4F-942549F89AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70865B49-3428-4CA3-90F8-74A297738E8B}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{51C81ABE-75C4-477E-856D-EB7731E68FE9}"/>
+    <workbookView xWindow="-28920" yWindow="7920" windowWidth="29040" windowHeight="15720" xr2:uid="{51C81ABE-75C4-477E-856D-EB7731E68FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +423,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,6 +484,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,8 +805,8 @@
   </sheetPr>
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -982,7 +990,7 @@
       <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
@@ -1300,6 +1308,7 @@
       <c r="A93" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="B93" s="16"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
@@ -1377,17 +1386,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="542dba5c-57c0-4be9-83a0-2eb54b249ad7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5d198164-e75b-4636-a018-76cbeb3b6dcd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003CD167CC2BC44C4983200AC36A123CD3" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9fc11d2582fed0f91ec3544637e7d9f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="542dba5c-57c0-4be9-83a0-2eb54b249ad7" xmlns:ns3="5d198164-e75b-4636-a018-76cbeb3b6dcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99906f3d192489ac5282e976944b5beb" ns2:_="" ns3:_="">
     <xsd:import namespace="542dba5c-57c0-4be9-83a0-2eb54b249ad7"/>
@@ -1564,6 +1562,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="542dba5c-57c0-4be9-83a0-2eb54b249ad7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5d198164-e75b-4636-a018-76cbeb3b6dcd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1574,17 +1583,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7A12F1-139B-44F0-B795-B5D3AEA741FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="542dba5c-57c0-4be9-83a0-2eb54b249ad7"/>
-    <ds:schemaRef ds:uri="5d198164-e75b-4636-a018-76cbeb3b6dcd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2821EC47-FFEE-43D8-8276-7F7AEB4C2C14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1603,6 +1601,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7A12F1-139B-44F0-B795-B5D3AEA741FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="542dba5c-57c0-4be9-83a0-2eb54b249ad7"/>
+    <ds:schemaRef ds:uri="5d198164-e75b-4636-a018-76cbeb3b6dcd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{150624B3-CDF7-467C-9DF9-46CB81C78FB2}">
   <ds:schemaRefs>
